--- a/dist/data/stock.xlsx
+++ b/dist/data/stock.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>45000</v>
